--- a/results/kyber_v_xtea_cortex-m4.xlsx
+++ b/results/kyber_v_xtea_cortex-m4.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\FHNW\QSIT\fhnw-ise-qcrypt\kyber-benchmarks-STM32F4\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5489AEFD-7068-4B92-B752-01F01B44A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C255B051-617C-4A4F-B48D-640079CB6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DC632CE4-CEE3-456E-8E8C-097A9D0BCF1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{DC632CE4-CEE3-456E-8E8C-097A9D0BCF1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="168 MHz" sheetId="2" r:id="rId1"/>
+    <sheet name="64 MHz" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>xtea_set_key</t>
   </si>
@@ -95,6 +96,21 @@
   <si>
     <t>ms</t>
   </si>
+  <si>
+    <t>cpu cycles</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Cortex-M4</t>
+  </si>
+  <si>
+    <t>Intel x86-64</t>
+  </si>
+  <si>
+    <t>kyber_decaps</t>
+  </si>
 </sst>
 </file>
 
@@ -138,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$11</c:f>
+              <c:f>'168 MHz'!$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,6 +292,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-89E9-4793-A059-FE9315AAB27C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -290,7 +326,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C4C9-4150-94EF-1BBE66DE0D26}"/>
+                <c16:uniqueId val="{00000003-89E9-4793-A059-FE9315AAB27C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -309,13 +345,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C4C9-4150-94EF-1BBE66DE0D26}"/>
+                <c16:uniqueId val="{00000005-89E9-4793-A059-FE9315AAB27C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$30:$H$43</c:f>
+              <c:f>'168 MHz'!$H$32:$H$45</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -343,34 +379,34 @@
                   <c:v>kyber_encaps</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>kex_uake_initA</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>kex_uake_sharedB</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>kex_uake_sharedA</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>kex_ake_initA</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>kex_ake_sharedB</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>kex_ake_sharedA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$30:$I$43</c:f>
+              <c:f>'168 MHz'!$I$32:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.1218000000000001E-2</c:v>
+                  <c:v>2.9686000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.348047</c:v>
@@ -379,44 +415,44 @@
                   <c:v>0.34807700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.424099</c:v>
+                  <c:v>3.4241779999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.472264</c:v>
+                  <c:v>3.4719570000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.96195399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.874142</c:v>
+                  <c:v>4.0109820000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2043819999999998</c:v>
+                  <c:v>4.8751680000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8838760000000008</c:v>
+                  <c:v>5.2054239999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.169969999999999</c:v>
+                  <c:v>8.8849359999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.295922</c:v>
+                  <c:v>10.169807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8838480000000004</c:v>
+                  <c:v>5.2958449999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.043323000000001</c:v>
+                  <c:v>8.8848950000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.496537</c:v>
+                  <c:v>15.047855999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4C9-4150-94EF-1BBE66DE0D26}"/>
+              <c16:uniqueId val="{00000006-89E9-4793-A059-FE9315AAB27C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,6 +720,1768 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> time per function on ARM Cortex-M4 @ 168 MHz</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t>median values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'168 MHz'!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1FC3-45E1-8C58-7945A396F95A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1FC3-45E1-8C58-7945A396F95A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1FC3-45E1-8C58-7945A396F95A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'168 MHz'!$H$12:$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kex_ake_sharedA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'168 MHz'!$N$12:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.17670238095238094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0717083333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0718869047619046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.382011904761907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.666410714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7259166666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.874892857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.018857142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.984666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.886523809523808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.53456547619048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.522886904761904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.886279761904767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.570571428571427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.500077380952384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1FC3-45E1-8C58-7945A396F95A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1468370128"/>
+        <c:axId val="1468370544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1468370128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468370544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468370544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468370128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t>CPU cycles / time used for XTEA and Kyber-512</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="de-CH" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1050" baseline="0"/>
+              <a:t>on ARM Cortex-M4 @168MHz, median values, N=1'000</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'168 MHz'!$AB$12:$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kex_ake_sharedA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'168 MHz'!$AD$12:$AD$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.9686000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.348047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34807700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4241779999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4719570000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96195399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0109820000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8751680000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2054239999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8849359999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.169807</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2958449999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8848950000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.047855999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.500012999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E49-4AAE-A8BA-6481A79C345C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="491752816"/>
+        <c:axId val="491741584"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9E49-4AAE-A8BA-6481A79C345C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9E49-4AAE-A8BA-6481A79C345C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9E49-4AAE-A8BA-6481A79C345C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'168 MHz'!$AB$12:$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kex_ake_sharedA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'168 MHz'!$AC$12:$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.17670238095238094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0717083333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0718869047619046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.382011904761907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.666410714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7259166666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.874892857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.018857142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.984666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.886523809523808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.53456547619048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.522886904761904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.886279761904767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.570571428571427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.500077380952384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9E49-4AAE-A8BA-6481A79C345C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="491743248"/>
+        <c:axId val="491729104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491752816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491741584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491741584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>CPU cycles    x1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0"/>
+                  <a:t> mil</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491752816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="491729104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491743248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="491743248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="491729104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>CPU cycles</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> used</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t> per function on ARM Cortex-M4</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1100"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>median values</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 MHz'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6415-45DD-A624-618FF8E99FC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C4C9-4150-94EF-1BBE66DE0D26}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C4C9-4150-94EF-1BBE66DE0D26}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'64 MHz'!$H$32:$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 MHz'!$I$32:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.1089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34822399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34825299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4233880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4708939999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96201899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0102640000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8739970000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2042260000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8830100000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.16743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.294638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8829779999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.04429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4C9-4150-94EF-1BBE66DE0D26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1468370128"/>
+        <c:axId val="1468370544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1468370128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468370544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468370544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0"/>
+                  <a:t> cycles  x1 mil</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468370128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
               <a:t> time per function on ARM Cortex-M4 @ 64 MHz</a:t>
             </a:r>
             <a:br>
@@ -738,7 +2536,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$11</c:f>
+              <c:f>'64 MHz'!$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,6 +2555,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-67EA-4011-82A5-A5B3325C131C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -797,9 +2614,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$12:$H$25</c:f>
+              <c:f>'64 MHz'!$H$12:$H$26</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>xtea_set_key</c:v>
                 </c:pt>
@@ -825,21 +2642,24 @@
                   <c:v>kyber_encaps</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>kex_uake_initA</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>kex_uake_sharedB</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>kex_uake_sharedA</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>kex_ake_initA</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>kex_ake_sharedB</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>kex_ake_sharedA</c:v>
                 </c:pt>
               </c:strCache>
@@ -847,51 +2667,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$12:$N$25</c:f>
+              <c:f>'64 MHz'!$N$12:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.17528125</c:v>
+                  <c:v>0.17328125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4382343750000004</c:v>
+                  <c:v>5.4409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.438703125</c:v>
+                  <c:v>5.4414531249999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.501546875000003</c:v>
+                  <c:v>53.490437499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.254125000000002</c:v>
+                  <c:v>54.232718750000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.030531250000001</c:v>
+                  <c:v>15.031546875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.158468749999997</c:v>
+                  <c:v>62.660375000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.318468750000008</c:v>
+                  <c:v>76.156203125000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138.8105625</c:v>
+                  <c:v>81.316031249999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158.90578124999999</c:v>
+                  <c:v>138.79703125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.748781250000008</c:v>
+                  <c:v>158.86609375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138.810125</c:v>
+                  <c:v>82.728718749999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>235.05192187500001</c:v>
+                  <c:v>138.79653125000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164.008390625</c:v>
+                  <c:v>235.06703125000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.025265625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,6 +2945,762 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t>CPU cycles / time used for XTEA and Kyber-512</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="de-CH" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-CH" sz="1050" baseline="0"/>
+              <a:t>on ARM Cortex-M4 @64MHz, median values, N=1'000</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'64 MHz'!$AB$12:$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kex_ake_sharedA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 MHz'!$AD$12:$AD$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34822399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34825299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4233880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4708939999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96201899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0102640000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8739970000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2042260000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8830100000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.16743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.294638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8829779999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.04429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.497617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD7C-44A0-8FD7-13446A8C9179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="491752816"/>
+        <c:axId val="491741584"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FD7C-44A0-8FD7-13446A8C9179}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FD7C-44A0-8FD7-13446A8C9179}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-FD7C-44A0-8FD7-13446A8C9179}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'64 MHz'!$AB$12:$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>xtea_set_key</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xtea_encrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xtea_decrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indcpa_keypair</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>indcpa_enc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>indcpa_dec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>kyber_keypair</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kyber_encaps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kyber_decaps</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>kex_uake_initA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kex_uake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>kex_uake_sharedA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>kex_ake_initA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>kex_ake_sharedB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>kex_ake_sharedA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 MHz'!$AC$12:$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.17328125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4414531249999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.490437499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.232718750000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.031546875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.660375000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.156203125000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.316031249999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.79703125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158.86609375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.728718749999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.79653125000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235.06703125000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.025265625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FD7C-44A0-8FD7-13446A8C9179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="491743248"/>
+        <c:axId val="491729104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491752816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491741584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491741584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>CPU cycles    x1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0"/>
+                  <a:t> mil</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491752816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="491729104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491743248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="491743248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="491729104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1202,6 +3781,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2208,19 +4947,2335 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>112658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>188858</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E97DD79-3A44-4143-A6D7-FB2A6C55947C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C48C1-39AB-443D-8FA7-29A3CDAAA4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>62118</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498CFA12-DFC0-4745-A266-4532EB3958BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23648</cdr:x>
+      <cdr:y>0.18392</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23806</cdr:x>
+      <cdr:y>0.737</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C9E079-285D-4AB1-A244-9A5FD47B6B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2038759" y="641491"/>
+          <a:ext cx="13673" cy="1929009"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25542</cdr:x>
+      <cdr:y>0.25917</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41403</cdr:x>
+      <cdr:y>0.38724</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C44F127-C045-4C7E-B59B-C1CC085C6747}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2206767" y="903921"/>
+          <a:ext cx="1370321" cy="446690"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kyber-512</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256 bit key</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07112</cdr:x>
+      <cdr:y>0.26105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23254</cdr:x>
+      <cdr:y>0.40607</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4403150A-D1D3-4162-B833-F18BC8FE200F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="614485" y="910490"/>
+          <a:ext cx="1394605" cy="505810"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XTEA</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256 bit key</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>188858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2256,7 +7311,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2282,7 +7337,230 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>39759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D724B27-247A-419E-8BD1-0F3485964B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23648</cdr:x>
+      <cdr:y>0.18392</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23806</cdr:x>
+      <cdr:y>0.737</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C9E079-285D-4AB1-A244-9A5FD47B6B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2038759" y="641491"/>
+          <a:ext cx="13673" cy="1929009"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25542</cdr:x>
+      <cdr:y>0.25917</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41403</cdr:x>
+      <cdr:y>0.38724</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C44F127-C045-4C7E-B59B-C1CC085C6747}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2206767" y="903921"/>
+          <a:ext cx="1370321" cy="446690"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kyber-512</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256 bit key</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07112</cdr:x>
+      <cdr:y>0.26105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23254</cdr:x>
+      <cdr:y>0.40607</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4403150A-D1D3-4162-B833-F18BC8FE200F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="614485" y="910490"/>
+          <a:ext cx="1394605" cy="505810"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XTEA</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>256 bit key</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2581,11 +7859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855A6FAB-51BC-4BD5-A017-7AAED732B285}">
-  <dimension ref="A5:Z43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AB514F-AD25-4A58-8EA2-2D06B942AC39}">
+  <dimension ref="A5:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="S12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,7 +7871,7 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>18</v>
       </c>
@@ -2601,20 +7879,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H6" s="1">
-        <v>64000000</v>
+        <v>168000000</v>
       </c>
       <c r="I6" s="1">
         <f>1/H6</f>
-        <v>1.5624999999999999E-8</v>
+        <v>5.9523809523809525E-9</v>
       </c>
       <c r="J6" s="1">
         <f>I6*1000</f>
-        <v>1.5625E-5</v>
+        <v>5.9523809523809525E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -2662,22 +7940,28 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
+      <c r="AC11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>11218</v>
+        <v>29686</v>
       </c>
       <c r="C12">
-        <v>11225</v>
+        <v>29698</v>
       </c>
       <c r="D12">
-        <v>11218</v>
+        <v>29625</v>
       </c>
       <c r="E12">
-        <v>11482</v>
+        <v>29807</v>
       </c>
       <c r="H12" t="str">
         <f>A12</f>
@@ -2685,31 +7969,31 @@
       </c>
       <c r="I12">
         <f>B12</f>
-        <v>11218</v>
+        <v>29686</v>
       </c>
       <c r="J12">
         <f>D12</f>
-        <v>11218</v>
+        <v>29625</v>
       </c>
       <c r="K12">
         <f>E12</f>
-        <v>11482</v>
+        <v>29807</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12:M25" si="0">H12</f>
+        <f t="shared" ref="M12:M26" si="0">H12</f>
         <v>xtea_set_key</v>
       </c>
       <c r="N12" s="2">
         <f>I12*$J$6</f>
-        <v>0.17528125</v>
+        <v>0.17670238095238094</v>
       </c>
       <c r="O12" s="2">
         <f>J12*$J$6</f>
-        <v>0.17528125</v>
+        <v>0.17633928571428573</v>
       </c>
       <c r="P12" s="2">
         <f>K12*$J$6</f>
-        <v>0.17940625000000002</v>
+        <v>0.17742261904761905</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -2721,8 +8005,20 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+      <c r="AB12" t="str">
+        <f>M12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>N12</f>
+        <v>0.17670238095238094</v>
+      </c>
+      <c r="AD12">
+        <f>I32</f>
+        <v>2.9686000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2736,39 +8032,39 @@
         <v>348044</v>
       </c>
       <c r="E13">
-        <v>348144</v>
+        <v>348136</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H19" si="1">A13</f>
+        <f t="shared" ref="H13:I26" si="1">A13</f>
         <v>xtea_encrypt</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I19" si="2">B13</f>
+        <f t="shared" si="1"/>
         <v>348047</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J19" si="3">D13</f>
+        <f t="shared" ref="J13:K26" si="2">D13</f>
         <v>348044</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K19" si="4">E13</f>
-        <v>348144</v>
+        <f t="shared" si="2"/>
+        <v>348136</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>xtea_encrypt</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:N25" si="5">I13*$J$6</f>
-        <v>5.4382343750000004</v>
+        <f t="shared" ref="N13:P26" si="3">I13*$J$6</f>
+        <v>2.0717083333333335</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" ref="O13:O25" si="6">J13*$J$6</f>
-        <v>5.4381874999999997</v>
+        <f t="shared" si="3"/>
+        <v>2.0716904761904762</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:P25" si="7">K13*$J$6</f>
-        <v>5.4397500000000001</v>
+        <f t="shared" si="3"/>
+        <v>2.0722380952380952</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2780,8 +8076,20 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
+      <c r="AB13" t="str">
+        <f t="shared" ref="AB13:AC26" si="4">M13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0717083333333335</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD26" si="5">I33</f>
+        <v>0.348047</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2795,39 +8103,39 @@
         <v>348075</v>
       </c>
       <c r="E14">
-        <v>348177</v>
+        <v>348169</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
         <v>xtea_decrypt</v>
       </c>
       <c r="I14">
+        <f t="shared" si="1"/>
+        <v>348077</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="2"/>
-        <v>348077</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
         <v>348075</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>348177</v>
+        <f t="shared" si="2"/>
+        <v>348169</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>xtea_decrypt</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="5"/>
-        <v>5.438703125</v>
+        <f t="shared" si="3"/>
+        <v>2.0718869047619046</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="6"/>
-        <v>5.4386718749999998</v>
+        <f t="shared" si="3"/>
+        <v>2.0718749999999999</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="7"/>
-        <v>5.4402656250000003</v>
+        <f t="shared" si="3"/>
+        <v>2.0724345238095241</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -2839,54 +8147,66 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
+      <c r="AB14" t="str">
+        <f t="shared" si="4"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0718869047619046</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>0.34807700000000003</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>3424099</v>
+        <v>3424178</v>
       </c>
       <c r="C15">
-        <v>3426410</v>
+        <v>3428051</v>
       </c>
       <c r="D15">
-        <v>3421640</v>
+        <v>3421288</v>
       </c>
       <c r="E15">
-        <v>3518789</v>
+        <v>3519896</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
         <v>indcpa_keypair</v>
       </c>
       <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3424178</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="2"/>
-        <v>3424099</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>3421640</v>
+        <v>3421288</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>3518789</v>
+        <f t="shared" si="2"/>
+        <v>3519896</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>indcpa_keypair</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="5"/>
-        <v>53.501546875000003</v>
+        <f t="shared" si="3"/>
+        <v>20.382011904761907</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="6"/>
-        <v>53.463124999999998</v>
+        <f t="shared" si="3"/>
+        <v>20.364809523809523</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="7"/>
-        <v>54.981078125000003</v>
+        <f t="shared" si="3"/>
+        <v>20.951761904761906</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2898,54 +8218,66 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
+      <c r="AB15" t="str">
+        <f t="shared" si="4"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="4"/>
+        <v>20.382011904761907</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>3.4241779999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>3472264</v>
+        <v>3471957</v>
       </c>
       <c r="C16">
-        <v>3472262</v>
+        <v>3471982</v>
       </c>
       <c r="D16">
-        <v>3472179</v>
+        <v>3471945</v>
       </c>
       <c r="E16">
-        <v>3472404</v>
+        <v>3472133</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
         <v>indcpa_enc</v>
       </c>
       <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3471957</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="2"/>
-        <v>3472264</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>3472179</v>
+        <v>3471945</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
-        <v>3472404</v>
+        <f t="shared" si="2"/>
+        <v>3472133</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>indcpa_enc</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="5"/>
-        <v>54.254125000000002</v>
+        <f t="shared" si="3"/>
+        <v>20.666410714285714</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="6"/>
-        <v>54.252796875000001</v>
+        <f t="shared" si="3"/>
+        <v>20.666339285714287</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="7"/>
-        <v>54.2563125</v>
+        <f t="shared" si="3"/>
+        <v>20.667458333333332</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2957,8 +8289,20 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
+      <c r="AB16" t="str">
+        <f t="shared" si="4"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="4"/>
+        <v>20.666410714285714</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>3.4719570000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2966,45 +8310,45 @@
         <v>961954</v>
       </c>
       <c r="C17">
-        <v>961944</v>
+        <v>961945</v>
       </c>
       <c r="D17">
-        <v>961890</v>
+        <v>961885</v>
       </c>
       <c r="E17">
-        <v>961987</v>
+        <v>962000</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
         <v>indcpa_dec</v>
       </c>
       <c r="I17">
+        <f t="shared" si="1"/>
+        <v>961954</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="2"/>
-        <v>961954</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>961890</v>
+        <v>961885</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
-        <v>961987</v>
+        <f t="shared" si="2"/>
+        <v>962000</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>indcpa_dec</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>15.030531250000001</v>
+        <f t="shared" si="3"/>
+        <v>5.7259166666666665</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="6"/>
-        <v>15.02953125</v>
+        <f t="shared" si="3"/>
+        <v>5.7255059523809528</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="7"/>
-        <v>15.031046874999999</v>
+        <f t="shared" si="3"/>
+        <v>5.7261904761904763</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3016,54 +8360,66 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
+      <c r="AB17" t="str">
+        <f t="shared" si="4"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="4"/>
+        <v>5.7259166666666665</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>0.96195399999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
-        <v>4874142</v>
+        <v>4010982</v>
       </c>
       <c r="C18">
-        <v>574877</v>
+        <v>4014127</v>
       </c>
       <c r="D18">
-        <v>4874064</v>
+        <v>4008254</v>
       </c>
       <c r="E18">
-        <v>4874126</v>
+        <v>4105313</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
         <v>kyber_keypair</v>
       </c>
       <c r="I18">
+        <f t="shared" si="1"/>
+        <v>4010982</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="2"/>
-        <v>4874142</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>4874064</v>
+        <v>4008254</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
-        <v>4874126</v>
+        <f t="shared" si="2"/>
+        <v>4105313</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>kyber_keypair</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="5"/>
-        <v>76.158468749999997</v>
+        <f t="shared" si="3"/>
+        <v>23.874892857142857</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="6"/>
-        <v>76.157250000000005</v>
+        <f t="shared" si="3"/>
+        <v>23.858654761904763</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="7"/>
-        <v>76.158218750000003</v>
+        <f t="shared" si="3"/>
+        <v>24.436386904761907</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -3075,54 +8431,66 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
+      <c r="AB18" t="str">
+        <f t="shared" si="4"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="4"/>
+        <v>23.874892857142857</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>4.0109820000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
-        <v>5204382</v>
+        <v>4875168</v>
       </c>
       <c r="C19">
-        <v>905117</v>
+        <v>575906</v>
       </c>
       <c r="D19">
-        <v>5204288</v>
+        <v>4875092</v>
       </c>
       <c r="E19">
-        <v>5204352</v>
+        <v>4875186</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
         <v>kyber_encaps</v>
       </c>
       <c r="I19">
+        <f t="shared" si="1"/>
+        <v>4875168</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="2"/>
-        <v>5204382</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>5204288</v>
+        <v>4875092</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
-        <v>5204352</v>
+        <f t="shared" si="2"/>
+        <v>4875186</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>kyber_encaps</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="5"/>
-        <v>81.318468750000008</v>
+        <f t="shared" si="3"/>
+        <v>29.018857142857144</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="6"/>
-        <v>81.317000000000007</v>
+        <f t="shared" si="3"/>
+        <v>29.018404761904762</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="7"/>
-        <v>81.317999999999998</v>
+        <f t="shared" si="3"/>
+        <v>29.018964285714286</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -3134,54 +8502,66 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
+      <c r="AB19" t="str">
+        <f t="shared" si="4"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="4"/>
+        <v>29.018857142857144</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>4.8751680000000004</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>8883876</v>
+        <v>5205424</v>
       </c>
       <c r="C20">
-        <v>288780</v>
+        <v>906157</v>
       </c>
       <c r="D20">
-        <v>8881334</v>
+        <v>5205312</v>
       </c>
       <c r="E20">
-        <v>8885395</v>
+        <v>5205467</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ref="H20:H24" si="8">A20</f>
-        <v>kex_uake_initA</v>
+        <f t="shared" si="1"/>
+        <v>kyber_decaps</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I24" si="9">B20</f>
-        <v>8883876</v>
+        <f t="shared" si="1"/>
+        <v>5205424</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J24" si="10">D20</f>
-        <v>8881334</v>
+        <f t="shared" si="2"/>
+        <v>5205312</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K24" si="11">E20</f>
-        <v>8885395</v>
+        <f t="shared" si="2"/>
+        <v>5205467</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>kex_uake_initA</v>
+        <v>kyber_decaps</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="5"/>
-        <v>138.8105625</v>
+        <f t="shared" si="3"/>
+        <v>30.984666666666669</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="6"/>
-        <v>138.77084375000001</v>
+        <f t="shared" si="3"/>
+        <v>30.984000000000002</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="7"/>
-        <v>138.83429687500001</v>
+        <f t="shared" si="3"/>
+        <v>30.984922619047619</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -3193,54 +8573,66 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
+      <c r="AB20" t="str">
+        <f t="shared" si="4"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="4"/>
+        <v>30.984666666666669</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>5.2054239999999998</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>10169970</v>
+        <v>8884936</v>
       </c>
       <c r="C21">
-        <v>1571439</v>
+        <v>289901</v>
       </c>
       <c r="D21">
-        <v>10169876</v>
+        <v>8882130</v>
       </c>
       <c r="E21">
-        <v>10170017</v>
+        <v>8883708</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="8"/>
-        <v>kex_uake_sharedB</v>
+        <f t="shared" si="1"/>
+        <v>kex_uake_initA</v>
       </c>
       <c r="I21">
-        <f t="shared" si="9"/>
-        <v>10169970</v>
+        <f t="shared" si="1"/>
+        <v>8884936</v>
       </c>
       <c r="J21">
-        <f t="shared" si="10"/>
-        <v>10169876</v>
+        <f t="shared" si="2"/>
+        <v>8882130</v>
       </c>
       <c r="K21">
-        <f t="shared" si="11"/>
-        <v>10170017</v>
+        <f t="shared" si="2"/>
+        <v>8883708</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>kex_uake_sharedB</v>
+        <v>kex_uake_initA</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="5"/>
-        <v>158.90578124999999</v>
+        <f t="shared" si="3"/>
+        <v>52.886523809523808</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="6"/>
-        <v>158.9043125</v>
+        <f t="shared" si="3"/>
+        <v>52.869821428571427</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="7"/>
-        <v>158.906515625</v>
+        <f t="shared" si="3"/>
+        <v>52.879214285714291</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -3252,54 +8644,66 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
+      <c r="AB21" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="4"/>
+        <v>52.886523809523808</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>8.8849359999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>5295922</v>
+        <v>10169807</v>
       </c>
       <c r="C22">
-        <v>996658</v>
+        <v>1571273</v>
       </c>
       <c r="D22">
-        <v>5295845</v>
+        <v>10169658</v>
       </c>
       <c r="E22">
-        <v>5295941</v>
+        <v>10169848</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="8"/>
-        <v>kex_uake_sharedA</v>
+        <f t="shared" si="1"/>
+        <v>kex_uake_sharedB</v>
       </c>
       <c r="I22">
-        <f t="shared" si="9"/>
-        <v>5295922</v>
+        <f t="shared" si="1"/>
+        <v>10169807</v>
       </c>
       <c r="J22">
-        <f t="shared" si="10"/>
-        <v>5295845</v>
+        <f t="shared" si="2"/>
+        <v>10169658</v>
       </c>
       <c r="K22">
-        <f t="shared" si="11"/>
-        <v>5295941</v>
+        <f t="shared" si="2"/>
+        <v>10169848</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>kex_uake_sharedA</v>
+        <v>kex_uake_sharedB</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="5"/>
-        <v>82.748781250000008</v>
+        <f t="shared" si="3"/>
+        <v>60.53456547619048</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="6"/>
-        <v>82.747578125000004</v>
+        <f t="shared" si="3"/>
+        <v>60.533678571428574</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="7"/>
-        <v>82.749078124999997</v>
+        <f t="shared" si="3"/>
+        <v>60.534809523809528</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -3311,54 +8715,66 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
+      <c r="AB22" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="4"/>
+        <v>60.53456547619048</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>10.169807</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>8883848</v>
+        <v>5295845</v>
       </c>
       <c r="C23">
-        <v>287682</v>
+        <v>996583</v>
       </c>
       <c r="D23">
-        <v>8880828</v>
+        <v>5295754</v>
       </c>
       <c r="E23">
-        <v>8884404</v>
+        <v>5295803</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="8"/>
-        <v>kex_ake_initA</v>
+        <f t="shared" si="1"/>
+        <v>kex_uake_sharedA</v>
       </c>
       <c r="I23">
-        <f t="shared" si="9"/>
-        <v>8883848</v>
+        <f t="shared" si="1"/>
+        <v>5295845</v>
       </c>
       <c r="J23">
-        <f t="shared" si="10"/>
-        <v>8880828</v>
+        <f t="shared" si="2"/>
+        <v>5295754</v>
       </c>
       <c r="K23">
-        <f t="shared" si="11"/>
-        <v>8884404</v>
+        <f t="shared" si="2"/>
+        <v>5295803</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>kex_ake_initA</v>
+        <v>kex_uake_sharedA</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="5"/>
-        <v>138.810125</v>
+        <f t="shared" si="3"/>
+        <v>31.522886904761904</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="6"/>
-        <v>138.76293749999999</v>
+        <f t="shared" si="3"/>
+        <v>31.522345238095237</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="7"/>
-        <v>138.81881250000001</v>
+        <f t="shared" si="3"/>
+        <v>31.522636904761907</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -3370,54 +8786,66 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
+      <c r="AB23" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" si="4"/>
+        <v>31.522886904761904</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>5.2958449999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>15043323</v>
+        <v>8884895</v>
       </c>
       <c r="C24">
-        <v>2145527</v>
+        <v>288890</v>
       </c>
       <c r="D24">
-        <v>15043178</v>
+        <v>8882351</v>
       </c>
       <c r="E24">
-        <v>15043388</v>
+        <v>8885368</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="8"/>
-        <v>kex_ake_sharedB</v>
+        <f t="shared" si="1"/>
+        <v>kex_ake_initA</v>
       </c>
       <c r="I24">
-        <f t="shared" si="9"/>
-        <v>15043323</v>
+        <f t="shared" si="1"/>
+        <v>8884895</v>
       </c>
       <c r="J24">
-        <f t="shared" si="10"/>
-        <v>15043178</v>
+        <f t="shared" si="2"/>
+        <v>8882351</v>
       </c>
       <c r="K24">
-        <f t="shared" si="11"/>
-        <v>15043388</v>
+        <f t="shared" si="2"/>
+        <v>8885368</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>kex_ake_sharedB</v>
+        <v>kex_ake_initA</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="5"/>
-        <v>235.05192187500001</v>
+        <f t="shared" si="3"/>
+        <v>52.886279761904767</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="6"/>
-        <v>235.04965625</v>
+        <f t="shared" si="3"/>
+        <v>52.871136904761904</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="7"/>
-        <v>235.05293750000001</v>
+        <f t="shared" si="3"/>
+        <v>52.889095238095237</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -3429,54 +8857,66 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
+      <c r="AB24" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" si="4"/>
+        <v>52.886279761904767</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>8.8848950000000002</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>10496537</v>
+        <v>15047856</v>
       </c>
       <c r="C25">
-        <v>1898004</v>
+        <v>2150058</v>
       </c>
       <c r="D25">
-        <v>10496398</v>
+        <v>15047697</v>
       </c>
       <c r="E25">
-        <v>10496521</v>
+        <v>15047744</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25" si="12">A25</f>
-        <v>kex_ake_sharedA</v>
+        <f t="shared" si="1"/>
+        <v>kex_ake_sharedB</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="13">B25</f>
-        <v>10496537</v>
+        <f t="shared" si="1"/>
+        <v>15047856</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="14">D25</f>
-        <v>10496398</v>
+        <f t="shared" si="2"/>
+        <v>15047697</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="15">E25</f>
-        <v>10496521</v>
+        <f t="shared" si="2"/>
+        <v>15047744</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>kex_ake_sharedA</v>
+        <v>kex_ake_sharedB</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="5"/>
-        <v>164.008390625</v>
+        <f t="shared" si="3"/>
+        <v>89.570571428571427</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="6"/>
-        <v>164.00621875000002</v>
+        <f t="shared" si="3"/>
+        <v>89.569625000000002</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="7"/>
-        <v>164.00814062500001</v>
+        <f t="shared" si="3"/>
+        <v>89.569904761904766</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3488,8 +8928,67 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
+      <c r="AB25" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="4"/>
+        <v>89.570571428571427</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>15.047855999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>10500013</v>
+      </c>
+      <c r="C26">
+        <v>1901439</v>
+      </c>
+      <c r="D26">
+        <v>10499931</v>
+      </c>
+      <c r="E26">
+        <v>10500013</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>10500013</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>10499931</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>10500013</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>62.500077380952384</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="3"/>
+        <v>62.499589285714286</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>62.500077380952384</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3500,11 +8999,20 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
+      <c r="AB26" t="str">
+        <f t="shared" si="4"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" si="4"/>
+        <v>62.500077380952384</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>10.500012999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <v>1000000</v>
-      </c>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3515,8 +9023,9 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
+      <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3527,16 +9036,11 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
+      <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" t="s">
-        <v>6</v>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1000000</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -3549,50 +9053,15 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H30" t="str">
-        <f>H12</f>
-        <v>xtea_set_key</v>
-      </c>
-      <c r="I30">
-        <f>I12/$I$27</f>
-        <v>1.1218000000000001E-2</v>
-      </c>
-      <c r="J30">
-        <f>J12/$I$27</f>
-        <v>1.1218000000000001E-2</v>
-      </c>
-      <c r="K30">
-        <f>K12/$I$27</f>
-        <v>1.1481999999999999E-2</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H31" t="str">
-        <f t="shared" ref="H31:H45" si="16">H13</f>
-        <v>xtea_encrypt</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ref="I31:K31" si="17">I13/$I$27</f>
-        <v>0.348047</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="17"/>
-        <v>0.34804400000000002</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="17"/>
-        <v>0.34814400000000001</v>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3605,22 +9074,22 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H32" t="str">
-        <f t="shared" si="16"/>
-        <v>xtea_decrypt</v>
+        <f>H12</f>
+        <v>xtea_set_key</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:K32" si="18">I14/$I$27</f>
-        <v>0.34807700000000003</v>
+        <f>I12/$I$29</f>
+        <v>2.9686000000000001E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="18"/>
-        <v>0.34807500000000002</v>
+        <f>J12/$I$29</f>
+        <v>2.9624999999999999E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="18"/>
-        <v>0.34817700000000001</v>
+        <f>K12/$I$29</f>
+        <v>2.9807E-2</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3633,22 +9102,22 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H33" t="str">
-        <f t="shared" si="16"/>
-        <v>indcpa_keypair</v>
+        <f t="shared" ref="H33:H46" si="6">H13</f>
+        <v>xtea_encrypt</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:K33" si="19">I15/$I$27</f>
-        <v>3.424099</v>
+        <f t="shared" ref="I33:K46" si="7">I13/$I$29</f>
+        <v>0.348047</v>
       </c>
       <c r="J33">
-        <f t="shared" si="19"/>
-        <v>3.42164</v>
+        <f t="shared" si="7"/>
+        <v>0.34804400000000002</v>
       </c>
       <c r="K33">
-        <f t="shared" si="19"/>
-        <v>3.5187889999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.348136</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -3661,22 +9130,22 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H34" t="str">
-        <f t="shared" si="16"/>
-        <v>indcpa_enc</v>
+        <f t="shared" si="6"/>
+        <v>xtea_decrypt</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:K34" si="20">I16/$I$27</f>
-        <v>3.472264</v>
+        <f t="shared" si="7"/>
+        <v>0.34807700000000003</v>
       </c>
       <c r="J34">
-        <f t="shared" si="20"/>
-        <v>3.4721790000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.34807500000000002</v>
       </c>
       <c r="K34">
-        <f t="shared" si="20"/>
-        <v>3.472404</v>
+        <f t="shared" si="7"/>
+        <v>0.34816900000000001</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -3689,22 +9158,22 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H35" t="str">
-        <f t="shared" si="16"/>
-        <v>indcpa_dec</v>
+        <f t="shared" si="6"/>
+        <v>indcpa_keypair</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:K35" si="21">I17/$I$27</f>
-        <v>0.96195399999999998</v>
+        <f t="shared" si="7"/>
+        <v>3.4241779999999999</v>
       </c>
       <c r="J35">
-        <f t="shared" si="21"/>
-        <v>0.96189000000000002</v>
+        <f t="shared" si="7"/>
+        <v>3.4212880000000001</v>
       </c>
       <c r="K35">
-        <f t="shared" si="21"/>
-        <v>0.96198700000000004</v>
+        <f t="shared" si="7"/>
+        <v>3.5198960000000001</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -3717,22 +9186,22 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H36" t="str">
-        <f t="shared" si="16"/>
-        <v>kyber_keypair</v>
+        <f t="shared" si="6"/>
+        <v>indcpa_enc</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:K36" si="22">I18/$I$27</f>
-        <v>4.874142</v>
+        <f t="shared" si="7"/>
+        <v>3.4719570000000002</v>
       </c>
       <c r="J36">
-        <f t="shared" si="22"/>
-        <v>4.8740639999999997</v>
+        <f t="shared" si="7"/>
+        <v>3.4719449999999998</v>
       </c>
       <c r="K36">
-        <f t="shared" si="22"/>
-        <v>4.8741260000000004</v>
+        <f t="shared" si="7"/>
+        <v>3.4721329999999999</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -3745,22 +9214,22 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H37" t="str">
-        <f t="shared" si="16"/>
-        <v>kyber_encaps</v>
+        <f t="shared" si="6"/>
+        <v>indcpa_dec</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:K37" si="23">I19/$I$27</f>
-        <v>5.2043819999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.96195399999999998</v>
       </c>
       <c r="J37">
-        <f t="shared" si="23"/>
-        <v>5.204288</v>
+        <f t="shared" si="7"/>
+        <v>0.96188499999999999</v>
       </c>
       <c r="K37">
-        <f t="shared" si="23"/>
-        <v>5.2043520000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -3773,22 +9242,22 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H38" t="str">
-        <f t="shared" si="16"/>
-        <v>kex_uake_initA</v>
+        <f t="shared" si="6"/>
+        <v>kyber_keypair</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:K38" si="24">I20/$I$27</f>
-        <v>8.8838760000000008</v>
+        <f t="shared" si="7"/>
+        <v>4.0109820000000003</v>
       </c>
       <c r="J38">
-        <f t="shared" si="24"/>
-        <v>8.8813340000000007</v>
+        <f t="shared" si="7"/>
+        <v>4.008254</v>
       </c>
       <c r="K38">
-        <f t="shared" si="24"/>
-        <v>8.8853950000000008</v>
+        <f t="shared" si="7"/>
+        <v>4.1053129999999998</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -3801,22 +9270,22 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H39" t="str">
-        <f t="shared" si="16"/>
-        <v>kex_uake_sharedB</v>
+        <f t="shared" si="6"/>
+        <v>kyber_encaps</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:K39" si="25">I21/$I$27</f>
-        <v>10.169969999999999</v>
+        <f t="shared" si="7"/>
+        <v>4.8751680000000004</v>
       </c>
       <c r="J39">
-        <f t="shared" si="25"/>
-        <v>10.169876</v>
+        <f t="shared" si="7"/>
+        <v>4.8750920000000004</v>
       </c>
       <c r="K39">
-        <f t="shared" si="25"/>
-        <v>10.170017</v>
+        <f t="shared" si="7"/>
+        <v>4.8751860000000002</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -3829,22 +9298,22 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H40" t="str">
-        <f t="shared" si="16"/>
-        <v>kex_uake_sharedA</v>
+        <f t="shared" si="6"/>
+        <v>kyber_decaps</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:K40" si="26">I22/$I$27</f>
-        <v>5.295922</v>
+        <f t="shared" si="7"/>
+        <v>5.2054239999999998</v>
       </c>
       <c r="J40">
-        <f t="shared" si="26"/>
-        <v>5.2958449999999999</v>
+        <f t="shared" si="7"/>
+        <v>5.2053120000000002</v>
       </c>
       <c r="K40">
-        <f t="shared" si="26"/>
-        <v>5.295941</v>
+        <f t="shared" si="7"/>
+        <v>5.2054669999999996</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -3857,22 +9326,22 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H41" t="str">
-        <f t="shared" si="16"/>
-        <v>kex_ake_initA</v>
+        <f t="shared" si="6"/>
+        <v>kex_uake_initA</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:K41" si="27">I23/$I$27</f>
-        <v>8.8838480000000004</v>
+        <f t="shared" si="7"/>
+        <v>8.8849359999999997</v>
       </c>
       <c r="J41">
-        <f t="shared" si="27"/>
-        <v>8.8808279999999993</v>
+        <f t="shared" si="7"/>
+        <v>8.8821300000000001</v>
       </c>
       <c r="K41">
-        <f t="shared" si="27"/>
-        <v>8.884404</v>
+        <f t="shared" si="7"/>
+        <v>8.8837080000000004</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -3885,40 +9354,2043 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>10.169807</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>10.169658</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>10.169848</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="6"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>5.2958449999999999</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>5.2957539999999996</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>5.2958030000000003</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="6"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>8.8848950000000002</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>8.8823509999999999</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>8.8853679999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="6"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>15.047855999999999</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>15.047696999999999</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>15.047744</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>10.500012999999999</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>10.499931</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>10.500012999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>A12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="B49">
+        <f>B12</f>
+        <v>29686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" ref="A50:B63" si="8">A13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="8"/>
+        <v>348047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="8"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="8"/>
+        <v>348077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="8"/>
+        <v>3424178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="8"/>
+        <v>3471957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="8"/>
+        <v>961954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="8"/>
+        <v>4010982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="8"/>
+        <v>4875168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="8"/>
+        <v>5205424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="8"/>
+        <v>8884936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="8"/>
+        <v>10169807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="8"/>
+        <v>5295845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="8"/>
+        <v>8884895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="8"/>
+        <v>15047856</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="8"/>
+        <v>10500013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855A6FAB-51BC-4BD5-A017-7AAED732B285}">
+  <dimension ref="A5:AD63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>64000000</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1/H6</f>
+        <v>1.5624999999999999E-8</v>
+      </c>
+      <c r="J6" s="1">
+        <f>I6*1000</f>
+        <v>1.5625E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <f>H11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <f>I11</f>
+        <v>median</v>
+      </c>
+      <c r="O11" t="str">
+        <f>J11</f>
+        <v>min</v>
+      </c>
+      <c r="P11" t="str">
+        <f>K11</f>
+        <v>max</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AC11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11090</v>
+      </c>
+      <c r="C12">
+        <v>11101</v>
+      </c>
+      <c r="D12">
+        <v>11090</v>
+      </c>
+      <c r="E12">
+        <v>11161</v>
+      </c>
+      <c r="H12" t="str">
+        <f>A12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="I12">
+        <f>B12</f>
+        <v>11090</v>
+      </c>
+      <c r="J12">
+        <f>D12</f>
+        <v>11090</v>
+      </c>
+      <c r="K12">
+        <f>E12</f>
+        <v>11161</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:M26" si="0">H12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="N12" s="2">
+        <f>I12*$J$6</f>
+        <v>0.17328125</v>
+      </c>
+      <c r="O12" s="2">
+        <f>J12*$J$6</f>
+        <v>0.17328125</v>
+      </c>
+      <c r="P12" s="2">
+        <f>K12*$J$6</f>
+        <v>0.17439062499999999</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" t="str">
+        <f>M12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>N12</f>
+        <v>0.17328125</v>
+      </c>
+      <c r="AD12">
+        <f>I32</f>
+        <v>1.1089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>348224</v>
+      </c>
+      <c r="C13">
+        <v>348247</v>
+      </c>
+      <c r="D13">
+        <v>348218</v>
+      </c>
+      <c r="E13">
+        <v>348320</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H20" si="1">A13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I26" si="2">B13</f>
+        <v>348224</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J26" si="3">D13</f>
+        <v>348218</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K26" si="4">E13</f>
+        <v>348320</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N26" si="5">I13*$J$6</f>
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:O26" si="6">J13*$J$6</f>
+        <v>5.4409062500000003</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:P26" si="7">K13*$J$6</f>
+        <v>5.4424999999999999</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" t="str">
+        <f t="shared" ref="AB13:AB26" si="8">M13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" ref="AC13:AC26" si="9">N13</f>
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD26" si="10">I33</f>
+        <v>0.34822399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>348253</v>
+      </c>
+      <c r="C14">
+        <v>348277</v>
+      </c>
+      <c r="D14">
+        <v>348247</v>
+      </c>
+      <c r="E14">
+        <v>348348</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>348253</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>348247</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>348348</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="5"/>
+        <v>5.4414531249999998</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="6"/>
+        <v>5.4413593750000002</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="7"/>
+        <v>5.4429375000000002</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" t="str">
+        <f t="shared" si="8"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="9"/>
+        <v>5.4414531249999998</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="10"/>
+        <v>0.34825299999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>3423388</v>
+      </c>
+      <c r="C15">
+        <v>3427285</v>
+      </c>
+      <c r="D15">
+        <v>3420544</v>
+      </c>
+      <c r="E15">
+        <v>3519135</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>3423388</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>3420544</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>3519135</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>53.490437499999999</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="6"/>
+        <v>53.445999999999998</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="7"/>
+        <v>54.986484375000003</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="9"/>
+        <v>53.490437499999999</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="10"/>
+        <v>3.4233880000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3470894</v>
+      </c>
+      <c r="C16">
+        <v>3470899</v>
+      </c>
+      <c r="D16">
+        <v>3470856</v>
+      </c>
+      <c r="E16">
+        <v>3470966</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>3470894</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>3470856</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>3470966</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="5"/>
+        <v>54.232718750000004</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="6"/>
+        <v>54.232125000000003</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="7"/>
+        <v>54.233843749999998</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="9"/>
+        <v>54.232718750000004</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
+        <v>3.4708939999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>962019</v>
+      </c>
+      <c r="C17">
+        <v>962020</v>
+      </c>
+      <c r="D17">
+        <v>962005</v>
+      </c>
+      <c r="E17">
+        <v>962082</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>962019</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>962005</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>962082</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>15.031546875</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="6"/>
+        <v>15.031328125</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="7"/>
+        <v>15.03253125</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" t="str">
+        <f t="shared" si="8"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="9"/>
+        <v>15.031546875</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="10"/>
+        <v>0.96201899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>4010264</v>
+      </c>
+      <c r="C18">
+        <v>4013387</v>
+      </c>
+      <c r="D18">
+        <v>4007489</v>
+      </c>
+      <c r="E18">
+        <v>4104637</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>4010264</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>4007489</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>4104637</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="5"/>
+        <v>62.660375000000002</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="6"/>
+        <v>62.617015625000001</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="7"/>
+        <v>64.134953124999996</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="9"/>
+        <v>62.660375000000002</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="10"/>
+        <v>4.0102640000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>4873997</v>
+      </c>
+      <c r="C19">
+        <v>574730</v>
+      </c>
+      <c r="D19">
+        <v>4873930</v>
+      </c>
+      <c r="E19">
+        <v>4873971</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>4873997</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>4873930</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>4873971</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="5"/>
+        <v>76.156203125000005</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>76.155156250000005</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="7"/>
+        <v>76.155796875000007</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="9"/>
+        <v>76.156203125000005</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="10"/>
+        <v>4.8739970000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>5204226</v>
+      </c>
+      <c r="C20">
+        <v>904962</v>
+      </c>
+      <c r="D20">
+        <v>5204170</v>
+      </c>
+      <c r="E20">
+        <v>5204180</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>5204226</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>5204170</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>5204180</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>81.316031249999995</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="6"/>
+        <v>81.315156250000001</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="7"/>
+        <v>81.315312500000005</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AB20" t="str">
+        <f t="shared" si="8"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="9"/>
+        <v>81.316031249999995</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="10"/>
+        <v>5.2042260000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>8883010</v>
+      </c>
+      <c r="C21">
+        <v>287962</v>
+      </c>
+      <c r="D21">
+        <v>8880180</v>
+      </c>
+      <c r="E21">
+        <v>8881838</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H25" si="11">A21</f>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>8883010</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>8880180</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>8881838</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>138.79703125</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="6"/>
+        <v>138.7528125</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="7"/>
+        <v>138.77871875</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AB21" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="9"/>
+        <v>138.79703125</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="10"/>
+        <v>8.8830100000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>10167430</v>
+      </c>
+      <c r="C22">
+        <v>1568878</v>
+      </c>
+      <c r="D22">
+        <v>10167299</v>
+      </c>
+      <c r="E22">
+        <v>10167425</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="11"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>10167430</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>10167299</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>10167425</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>158.86609375</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="6"/>
+        <v>158.86404687500001</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="7"/>
+        <v>158.86601562500002</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AB22" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="9"/>
+        <v>158.86609375</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="10"/>
+        <v>10.16743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>5294638</v>
+      </c>
+      <c r="C23">
+        <v>995353</v>
+      </c>
+      <c r="D23">
+        <v>5294534</v>
+      </c>
+      <c r="E23">
+        <v>5294623</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="11"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>5294638</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>5294534</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>5294623</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>82.728718749999999</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="6"/>
+        <v>82.727093750000009</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="7"/>
+        <v>82.728484375000008</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AB23" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" si="9"/>
+        <v>82.728718749999999</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="10"/>
+        <v>5.294638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>8882978</v>
+      </c>
+      <c r="C24">
+        <v>286947</v>
+      </c>
+      <c r="D24">
+        <v>8880415</v>
+      </c>
+      <c r="E24">
+        <v>8883420</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="11"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>8882978</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>8880415</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>8883420</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>138.79653125000002</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="6"/>
+        <v>138.75648437500001</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="7"/>
+        <v>138.8034375</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AB24" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" si="9"/>
+        <v>138.79653125000002</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="10"/>
+        <v>8.8829779999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>15044290</v>
+      </c>
+      <c r="C25">
+        <v>2146486</v>
+      </c>
+      <c r="D25">
+        <v>15044176</v>
+      </c>
+      <c r="E25">
+        <v>15044326</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="11"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>15044290</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>15044176</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>15044326</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>235.06703125000001</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="6"/>
+        <v>235.06524999999999</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="7"/>
+        <v>235.06759375000001</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AB25" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="9"/>
+        <v>235.06703125000001</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="10"/>
+        <v>15.04429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>10497617</v>
+      </c>
+      <c r="C26">
+        <v>1899085</v>
+      </c>
+      <c r="D26">
+        <v>10497547</v>
+      </c>
+      <c r="E26">
+        <v>10497650</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ref="H26" si="12">A26</f>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>10497617</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>10497547</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>10497650</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="5"/>
+        <v>164.025265625</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="6"/>
+        <v>164.02417187500001</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="7"/>
+        <v>164.02578124999999</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" t="str">
+        <f t="shared" si="8"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" si="9"/>
+        <v>164.025265625</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="10"/>
+        <v>10.497617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1000000</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f>H12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="I32">
+        <f>I12/$I$29</f>
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="J32">
+        <f>J12/$I$29</f>
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="K32">
+        <f>K12/$I$29</f>
+        <v>1.1161000000000001E-2</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" ref="H33:H46" si="13">H13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:K33" si="14">I13/$I$29</f>
+        <v>0.34822399999999998</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
+        <v>0.34821800000000003</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="14"/>
+        <v>0.34832000000000002</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="13"/>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:K34" si="15">I14/$I$29</f>
+        <v>0.34825299999999998</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>0.34824699999999997</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="15"/>
+        <v>0.34834799999999999</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="13"/>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:K35" si="16">I15/$I$29</f>
+        <v>3.4233880000000001</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="16"/>
+        <v>3.420544</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="16"/>
+        <v>3.5191349999999999</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="13"/>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:K36" si="17">I16/$I$29</f>
+        <v>3.4708939999999999</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="17"/>
+        <v>3.4708559999999999</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="17"/>
+        <v>3.4709660000000002</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="13"/>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:K37" si="18">I17/$I$29</f>
+        <v>0.96201899999999996</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="18"/>
+        <v>0.962005</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="18"/>
+        <v>0.96208199999999999</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="13"/>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:K38" si="19">I18/$I$29</f>
+        <v>4.0102640000000003</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="19"/>
+        <v>4.0074889999999996</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="19"/>
+        <v>4.1046370000000003</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="13"/>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:K39" si="20">I19/$I$29</f>
+        <v>4.8739970000000001</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="20"/>
+        <v>4.8739299999999997</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="20"/>
+        <v>4.8739710000000001</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="13"/>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:K40" si="21">I20/$I$29</f>
+        <v>5.2042260000000002</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="21"/>
+        <v>5.2041700000000004</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="21"/>
+        <v>5.20418</v>
+      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="13"/>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:K41" si="22">I21/$I$29</f>
+        <v>8.8830100000000005</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="22"/>
+        <v>8.8801799999999993</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="22"/>
+        <v>8.8818380000000001</v>
+      </c>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="13"/>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:K42" si="23">I22/$I$29</f>
+        <v>10.16743</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="23"/>
+        <v>10.167299</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="23"/>
+        <v>10.167425</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="13"/>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:K43" si="24">I23/$I$29</f>
+        <v>5.294638</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="24"/>
+        <v>5.2945339999999996</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="24"/>
+        <v>5.2946229999999996</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="13"/>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:K44" si="25">I24/$I$29</f>
+        <v>8.8829779999999996</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="25"/>
+        <v>8.8804149999999993</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="25"/>
+        <v>8.8834199999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="13"/>
         <v>kex_ake_sharedB</v>
       </c>
-      <c r="I42">
-        <f t="shared" ref="I42:K42" si="28">I24/$I$27</f>
-        <v>15.043323000000001</v>
-      </c>
-      <c r="J42">
+      <c r="I45">
+        <f t="shared" ref="I45:K45" si="26">I25/$I$29</f>
+        <v>15.04429</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="26"/>
+        <v>15.044176</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="26"/>
+        <v>15.044326</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="13"/>
+        <v>kex_ake_sharedA</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:K46" si="27">I26/$I$29</f>
+        <v>10.497617</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="27"/>
+        <v>10.497547000000001</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="27"/>
+        <v>10.49765</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>A12</f>
+        <v>xtea_set_key</v>
+      </c>
+      <c r="B49">
+        <f>B12</f>
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" ref="A50:B50" si="28">A13</f>
+        <v>xtea_encrypt</v>
+      </c>
+      <c r="B50">
         <f t="shared" si="28"/>
-        <v>15.043177999999999</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="28"/>
-        <v>15.043388</v>
+        <v>348224</v>
       </c>
     </row>
-    <row r="43" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H43" t="str">
-        <f>H25</f>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" ref="A51:B51" si="29">A14</f>
+        <v>xtea_decrypt</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="29"/>
+        <v>348253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" ref="A52:B52" si="30">A15</f>
+        <v>indcpa_keypair</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="30"/>
+        <v>3423388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" ref="A53:B53" si="31">A16</f>
+        <v>indcpa_enc</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="31"/>
+        <v>3470894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" ref="A54:B54" si="32">A17</f>
+        <v>indcpa_dec</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="32"/>
+        <v>962019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" ref="A55:B55" si="33">A18</f>
+        <v>kyber_keypair</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="33"/>
+        <v>4010264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" ref="A56:B56" si="34">A19</f>
+        <v>kyber_encaps</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="34"/>
+        <v>4873997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" ref="A57:B57" si="35">A20</f>
+        <v>kyber_decaps</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="35"/>
+        <v>5204226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" ref="A58:B58" si="36">A21</f>
+        <v>kex_uake_initA</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="36"/>
+        <v>8883010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" ref="A59:B59" si="37">A22</f>
+        <v>kex_uake_sharedB</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="37"/>
+        <v>10167430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" ref="A60:B60" si="38">A23</f>
+        <v>kex_uake_sharedA</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="38"/>
+        <v>5294638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61:B61" si="39">A24</f>
+        <v>kex_ake_initA</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="39"/>
+        <v>8882978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" ref="A62:B62" si="40">A25</f>
+        <v>kex_ake_sharedB</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="40"/>
+        <v>15044290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" ref="A63:B63" si="41">A26</f>
         <v>kex_ake_sharedA</v>
       </c>
-      <c r="I43">
-        <f>I25/$I$27</f>
-        <v>10.496537</v>
-      </c>
-      <c r="J43">
-        <f>J25/$I$27</f>
-        <v>10.496397999999999</v>
-      </c>
-      <c r="K43">
-        <f>K25/$I$27</f>
-        <v>10.496521</v>
+      <c r="B63">
+        <f t="shared" si="41"/>
+        <v>10497617</v>
       </c>
     </row>
   </sheetData>
